--- a/biology/Zoologie/Coelodonta_thibetana/Coelodonta_thibetana.xlsx
+++ b/biology/Zoologie/Coelodonta_thibetana/Coelodonta_thibetana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">'Rhinocéros laineux tibétain
 Coelodonta thibetana, communément appelé le Rhinocéros laineux tibétain, est une espèce fossile de rhinocéros laineux indigène à l'Ouest de l'Himalaya qui a vécu pendant le Pliocène moyen.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une équipe sino-américaine a découvert un crâne complet de rhinocéros laineux dans le bassin de Zanda, dans l’Himalaya[1].
-Coelodonta thibetana a pour holotype IVPP V15908, un crâne subcomplet, y compris la mandibule incomplète préservée avec dentition complète. L'espèce a été décrite en 2011 par des chercheurs chinois[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une équipe sino-américaine a découvert un crâne complet de rhinocéros laineux dans le bassin de Zanda, dans l’Himalaya.
+Coelodonta thibetana a pour holotype IVPP V15908, un crâne subcomplet, y compris la mandibule incomplète préservée avec dentition complète. L'espèce a été décrite en 2011 par des chercheurs chinois.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique des cinq espèces actuelles de rhinocéros et des treize espèces éteintes a permis de proposer la classification qui suit. Le rhinocéros tibétain est situé en position basale dans son genre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique des cinq espèces actuelles de rhinocéros et des treize espèces éteintes a permis de proposer la classification qui suit. Le rhinocéros tibétain est situé en position basale dans son genre.
 </t>
         </is>
       </c>
